--- a/KaryotypingPinnacle/CNN/theWholeCount.xlsx
+++ b/KaryotypingPinnacle/CNN/theWholeCount.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
   <si>
     <t>Chromosome</t>
   </si>
@@ -124,7 +124,7 @@
     <t>70</t>
   </si>
   <si>
-    <t>89</t>
+    <t>124</t>
   </si>
   <si>
     <t>71</t>
@@ -136,7 +136,7 @@
     <t>69</t>
   </si>
   <si>
-    <t>108</t>
+    <t>133</t>
   </si>
   <si>
     <t>68</t>
@@ -148,7 +148,7 @@
     <t>29</t>
   </si>
   <si>
-    <t>20</t>
+    <t>45</t>
   </si>
   <si>
     <t>18</t>
@@ -157,13 +157,16 @@
     <t>22</t>
   </si>
   <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
     <t>19</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>14</t>
   </si>
   <si>
     <t>41</t>
@@ -876,7 +879,7 @@
         <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -887,7 +890,7 @@
         <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/KaryotypingPinnacle/CNN/theWholeCount.xlsx
+++ b/KaryotypingPinnacle/CNN/theWholeCount.xlsx
@@ -124,7 +124,7 @@
     <t>70</t>
   </si>
   <si>
-    <t>124</t>
+    <t>173</t>
   </si>
   <si>
     <t>71</t>
@@ -142,7 +142,7 @@
     <t>68</t>
   </si>
   <si>
-    <t>112</t>
+    <t>163</t>
   </si>
   <si>
     <t>29</t>
@@ -157,16 +157,16 @@
     <t>22</t>
   </si>
   <si>
-    <t>53</t>
+    <t>104</t>
   </si>
   <si>
     <t>39</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>19</t>
+    <t>36</t>
+  </si>
+  <si>
+    <t>50</t>
   </si>
   <si>
     <t>41</t>

--- a/KaryotypingPinnacle/CNN/theWholeCount.xlsx
+++ b/KaryotypingPinnacle/CNN/theWholeCount.xlsx
@@ -124,7 +124,7 @@
     <t>70</t>
   </si>
   <si>
-    <t>173</t>
+    <t>201</t>
   </si>
   <si>
     <t>71</t>
@@ -136,19 +136,19 @@
     <t>69</t>
   </si>
   <si>
-    <t>133</t>
+    <t>163</t>
   </si>
   <si>
     <t>68</t>
   </si>
   <si>
-    <t>163</t>
+    <t>189</t>
   </si>
   <si>
     <t>29</t>
   </si>
   <si>
-    <t>45</t>
+    <t>75</t>
   </si>
   <si>
     <t>18</t>
@@ -157,10 +157,10 @@
     <t>22</t>
   </si>
   <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>39</t>
+    <t>76</t>
+  </si>
+  <si>
+    <t>62</t>
   </si>
   <si>
     <t>36</t>

--- a/KaryotypingPinnacle/CNN/theWholeCount.xlsx
+++ b/KaryotypingPinnacle/CNN/theWholeCount.xlsx
@@ -130,13 +130,13 @@
     <t>71</t>
   </si>
   <si>
-    <t>107</t>
+    <t>260</t>
   </si>
   <si>
     <t>69</t>
   </si>
   <si>
-    <t>163</t>
+    <t>176</t>
   </si>
   <si>
     <t>68</t>
@@ -151,10 +151,10 @@
     <t>75</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>22</t>
+    <t>31</t>
+  </si>
+  <si>
+    <t>173</t>
   </si>
   <si>
     <t>76</t>

--- a/KaryotypingPinnacle/CNN/theWholeCount.xlsx
+++ b/KaryotypingPinnacle/CNN/theWholeCount.xlsx
@@ -130,7 +130,7 @@
     <t>71</t>
   </si>
   <si>
-    <t>260</t>
+    <t>329</t>
   </si>
   <si>
     <t>69</t>
@@ -154,7 +154,7 @@
     <t>31</t>
   </si>
   <si>
-    <t>173</t>
+    <t>241</t>
   </si>
   <si>
     <t>76</t>

--- a/KaryotypingPinnacle/CNN/theWholeCount.xlsx
+++ b/KaryotypingPinnacle/CNN/theWholeCount.xlsx
@@ -130,7 +130,7 @@
     <t>71</t>
   </si>
   <si>
-    <t>329</t>
+    <t>260</t>
   </si>
   <si>
     <t>69</t>
@@ -154,7 +154,7 @@
     <t>31</t>
   </si>
   <si>
-    <t>241</t>
+    <t>173</t>
   </si>
   <si>
     <t>76</t>

--- a/KaryotypingPinnacle/CNN/theWholeCount.xlsx
+++ b/KaryotypingPinnacle/CNN/theWholeCount.xlsx
@@ -145,7 +145,7 @@
     <t>189</t>
   </si>
   <si>
-    <t>29</t>
+    <t>137</t>
   </si>
   <si>
     <t>75</t>

--- a/KaryotypingPinnacle/CNN/theWholeCount.xlsx
+++ b/KaryotypingPinnacle/CNN/theWholeCount.xlsx
@@ -145,7 +145,7 @@
     <t>189</t>
   </si>
   <si>
-    <t>137</t>
+    <t>268</t>
   </si>
   <si>
     <t>75</t>
